--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vegfa-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H2">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J2">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>2504.494468268928</v>
+        <v>351.8003836939538</v>
       </c>
       <c r="R2">
-        <v>22540.45021442035</v>
+        <v>3166.203453245585</v>
       </c>
       <c r="S2">
-        <v>0.1827109126823928</v>
+        <v>0.03640169710193573</v>
       </c>
       <c r="T2">
-        <v>0.1827109126823928</v>
+        <v>0.03640169710193572</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H3">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J3">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>1493.503702360128</v>
+        <v>137.908364243086</v>
       </c>
       <c r="R3">
-        <v>13441.53332124115</v>
+        <v>1241.175278187774</v>
       </c>
       <c r="S3">
-        <v>0.1089558903044263</v>
+        <v>0.01426973572424366</v>
       </c>
       <c r="T3">
-        <v>0.1089558903044262</v>
+        <v>0.01426973572424366</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H4">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J4">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>539.7702752361602</v>
+        <v>55.74426048060601</v>
       </c>
       <c r="R4">
-        <v>4857.932477125441</v>
+        <v>501.6983443254541</v>
       </c>
       <c r="S4">
-        <v>0.03937797462790616</v>
+        <v>0.005768003047295427</v>
       </c>
       <c r="T4">
-        <v>0.03937797462790615</v>
+        <v>0.005768003047295425</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.479168</v>
+        <v>2.629732666666667</v>
       </c>
       <c r="H5">
-        <v>85.437504</v>
+        <v>7.889198</v>
       </c>
       <c r="I5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="J5">
-        <v>0.4446244458164738</v>
+        <v>0.07156737804735891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>1556.883748994112</v>
+        <v>146.2024104636969</v>
       </c>
       <c r="R5">
-        <v>14011.95374094701</v>
+        <v>1315.821694173272</v>
       </c>
       <c r="S5">
-        <v>0.1135796682017486</v>
+        <v>0.0151279421738841</v>
       </c>
       <c r="T5">
-        <v>0.1135796682017486</v>
+        <v>0.0151279421738841</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>54.380033</v>
       </c>
       <c r="I6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J6">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>1594.083224069629</v>
+        <v>2424.950733229141</v>
       </c>
       <c r="R6">
-        <v>14346.74901662666</v>
+        <v>21824.55659906227</v>
       </c>
       <c r="S6">
-        <v>0.1162934893454828</v>
+        <v>0.2509159346310321</v>
       </c>
       <c r="T6">
-        <v>0.1162934893454827</v>
+        <v>0.250915934631032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>54.380033</v>
       </c>
       <c r="I7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J7">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
-        <v>950.598704521681</v>
+        <v>950.5987045216812</v>
       </c>
       <c r="R7">
-        <v>8555.388340695128</v>
+        <v>8555.38834069513</v>
       </c>
       <c r="S7">
-        <v>0.06934922759797713</v>
+        <v>0.09836091065094947</v>
       </c>
       <c r="T7">
-        <v>0.06934922759797711</v>
+        <v>0.09836091065094946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>54.380033</v>
       </c>
       <c r="I8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J8">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>343.5578522958896</v>
+        <v>384.2437120346011</v>
       </c>
       <c r="R8">
-        <v>3092.020670663006</v>
+        <v>3458.19340831141</v>
       </c>
       <c r="S8">
-        <v>0.02506364839191346</v>
+        <v>0.03975869233552332</v>
       </c>
       <c r="T8">
-        <v>0.02506364839191345</v>
+        <v>0.0397586923355233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>54.380033</v>
       </c>
       <c r="I9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="J9">
-        <v>0.2829985767855128</v>
+        <v>0.493312042610523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>990.9394081487159</v>
+        <v>1007.76934559069</v>
       </c>
       <c r="R9">
-        <v>8918.454673338441</v>
+        <v>9069.924110316211</v>
       </c>
       <c r="S9">
-        <v>0.07229221145013949</v>
+        <v>0.1042765049930182</v>
       </c>
       <c r="T9">
-        <v>0.07229221145013948</v>
+        <v>0.1042765049930182</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H10">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I10">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J10">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>521.7551705782702</v>
+        <v>1010.11172309575</v>
       </c>
       <c r="R10">
-        <v>4695.796535204431</v>
+        <v>9091.005507861753</v>
       </c>
       <c r="S10">
-        <v>0.03806371490171599</v>
+        <v>0.10451887686181</v>
       </c>
       <c r="T10">
-        <v>0.03806371490171599</v>
+        <v>0.10451887686181</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H11">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I11">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J11">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>311.137951733145</v>
+        <v>395.971300463633</v>
       </c>
       <c r="R11">
-        <v>2800.241565598305</v>
+        <v>3563.741704172698</v>
       </c>
       <c r="S11">
-        <v>0.02269851255474561</v>
+        <v>0.04097217629266751</v>
       </c>
       <c r="T11">
-        <v>0.02269851255474561</v>
+        <v>0.04097217629266751</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H12">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I12">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J12">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>112.449013402525</v>
+        <v>160.056479801193</v>
       </c>
       <c r="R12">
-        <v>1012.041120622725</v>
+        <v>1440.508318210737</v>
       </c>
       <c r="S12">
-        <v>0.008203516569637644</v>
+        <v>0.01656145861965203</v>
       </c>
       <c r="T12">
-        <v>0.00820351656963764</v>
+        <v>0.01656145861965202</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.932995000000001</v>
+        <v>7.550656333333333</v>
       </c>
       <c r="H13">
-        <v>17.798985</v>
+        <v>22.651969</v>
       </c>
       <c r="I13">
-        <v>0.09262751685396534</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="J13">
-        <v>0.09262751685396532</v>
+        <v>0.2054888252189962</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>324.341760909705</v>
+        <v>419.7856955230351</v>
       </c>
       <c r="R13">
-        <v>2919.075848187345</v>
+        <v>3778.071259707316</v>
       </c>
       <c r="S13">
-        <v>0.02366177282786609</v>
+        <v>0.04343631344486667</v>
       </c>
       <c r="T13">
-        <v>0.02366177282786608</v>
+        <v>0.04343631344486666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H14">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J14">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>1012.498376647316</v>
+        <v>1128.789979638093</v>
       </c>
       <c r="R14">
-        <v>9112.485389825846</v>
+        <v>10159.10981674283</v>
       </c>
       <c r="S14">
-        <v>0.07386500742185223</v>
+        <v>0.1167988235232622</v>
       </c>
       <c r="T14">
-        <v>0.07386500742185223</v>
+        <v>0.1167988235232622</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H15">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J15">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>603.782557044966</v>
+        <v>442.4940587935781</v>
       </c>
       <c r="R15">
-        <v>5434.043013404694</v>
+        <v>3982.446529142203</v>
       </c>
       <c r="S15">
-        <v>0.04404787611115974</v>
+        <v>0.04578600662250158</v>
       </c>
       <c r="T15">
-        <v>0.04404787611115974</v>
+        <v>0.04578600662250157</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H16">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J16">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>218.21430806227</v>
+        <v>178.861552088538</v>
       </c>
       <c r="R16">
-        <v>1963.92877256043</v>
+        <v>1609.753968796842</v>
       </c>
       <c r="S16">
-        <v>0.01591943439746221</v>
+        <v>0.01850726816708972</v>
       </c>
       <c r="T16">
-        <v>0.0159194343974622</v>
+        <v>0.01850726816708971</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.513346</v>
+        <v>8.437784666666667</v>
       </c>
       <c r="H17">
-        <v>34.540038</v>
+        <v>25.313354</v>
       </c>
       <c r="I17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="J17">
-        <v>0.179749460544048</v>
+        <v>0.2296317541231219</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>629.4053704078141</v>
+        <v>469.1064125556063</v>
       </c>
       <c r="R17">
-        <v>5664.648333670326</v>
+        <v>4221.957713000455</v>
       </c>
       <c r="S17">
-        <v>0.04591714261357386</v>
+        <v>0.0485396558102684</v>
       </c>
       <c r="T17">
-        <v>0.04591714261357386</v>
+        <v>0.04853965581026838</v>
       </c>
     </row>
   </sheetData>
